--- a/Curso Excel Avanzado 2.xlsx
+++ b/Curso Excel Avanzado 2.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lcaravaggio_mecon\Desktop\Trabajo\Curso Excel\Formulas Avanzadas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="5085" yWindow="105" windowWidth="5100" windowHeight="7455" tabRatio="801" firstSheet="6" activeTab="16"/>
   </bookViews>
@@ -45,12 +50,12 @@
     <definedName name="provincias">[1]NOMBRES!$B$17:$E$17</definedName>
     <definedName name="ventas">[2]COINCIDIR!$B$19:$F$22</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="211">
   <si>
     <t>NO</t>
   </si>
@@ -631,18 +636,6 @@
     <t>Devuelve el número de caracteres en el cual se encuentra un carácter en particular o cadena de texto, leyendo de izquierda a derecha. (No distingue entre mayúsculas y minúsculas)</t>
   </si>
   <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>Orden 1</t>
-  </si>
-  <si>
-    <t>Orden 2</t>
-  </si>
-  <si>
     <t>Pepe</t>
   </si>
   <si>
@@ -671,12 +664,36 @@
   </si>
   <si>
     <t>Devuelve la jerarquía de un número dentro de una lista de números: su tamaño en relación con otros valores de la lista; si más de un valor tiene la misma jerarquía, se devuelve la jerarquía superior de ese conjunto de valores.</t>
+  </si>
+  <si>
+    <t>con auxiliar</t>
+  </si>
+  <si>
+    <t>desordenado</t>
+  </si>
+  <si>
+    <t>ordenado</t>
+  </si>
+  <si>
+    <t>AAA - 105</t>
+  </si>
+  <si>
+    <t>AAA - 106</t>
+  </si>
+  <si>
+    <t>BBB - 100</t>
+  </si>
+  <si>
+    <t>AAA - 101</t>
+  </si>
+  <si>
+    <t>CCC - 105</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -789,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -829,9 +846,6 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -843,6 +857,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1041,11 +1058,13 @@
       <sheetName val="EVALUAR"/>
       <sheetName val="NOMBRES"/>
       <sheetName val="N"/>
+      <sheetName val="N2"/>
       <sheetName val="FORMATO"/>
       <sheetName val="CONVERT"/>
       <sheetName val="IR A ESPECIAL"/>
       <sheetName val="Datos TD"/>
       <sheetName val="TD"/>
+      <sheetName val="Grafico Dinamico"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1266,6 +1285,8 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1289,8 +1310,8 @@
       <sheetName val="SIFECHA"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="18">
           <cell r="B18" t="str">
@@ -1390,15 +1411,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1460,7 +1481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1495,7 +1516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7990,17 +8011,17 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="str">
+      <c r="B6" s="1" t="e">
         <f>+REPT(C6,2)</f>
-        <v>$1.20$1.20</v>
-      </c>
-      <c r="C6" s="1" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C6" s="1" t="e">
         <f>+TEXT(D6,"$0.00")</f>
-        <v>$1.20</v>
-      </c>
-      <c r="D6" s="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="D6" s="1" t="e">
         <f>+VALUE(E6)</f>
-        <v>1.2</v>
+        <v>#VALUE!</v>
       </c>
       <c r="E6" s="9" t="str">
         <f>+"1.2"</f>
@@ -8058,520 +8079,789 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="7" max="9" width="11.42578125" style="18"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
+        <v>0.17751825401805099</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18">
+        <f t="array" ref="C2:C25">+INDEX(A2:A25,MATCH(ROW(A1:A25),_xlfn.RANK.EQ(A2:A25,A2:A25,0),0))</f>
+        <v>0.96843510844638403</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18">
+        <f>+COUNTIF($A$2:$A$25,"&lt;="&amp;A2)</f>
+        <v>7</v>
+      </c>
+      <c r="F2" s="18">
+        <f t="array" ref="F2">+INDEX($A$2:$A$25,MATCH(ROW(A1),$E$2:$E$25,0))</f>
+        <v>3.2281011924176761E-3</v>
+      </c>
+      <c r="I2" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J2" s="18">
+        <f>+COUNTIF($I$2:$I$6,"&lt;="&amp;I2)</f>
+        <v>3</v>
+      </c>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="str">
+        <f>+INDEX($I$2:$I$6,MATCH(ROW(A1),$J$2:$J$6,0))</f>
+        <v>AAA</v>
+      </c>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="P2" s="18">
+        <f>+COUNTIF($O$2:$O$6,"&lt;="&amp;O2)</f>
+        <v>2</v>
+      </c>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18" t="str">
+        <f>+INDEX($O$2:$O$6,MATCH(ROW(G1),$P$2:$P$6,0))</f>
+        <v>AAA - 101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
+        <v>0.41014263920814564</v>
+      </c>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18">
+        <v>0.928143484442428</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18">
+        <f t="shared" ref="E3:E25" si="0">+COUNTIF($A$2:$A$25,"&lt;="&amp;A3)</f>
+        <v>11</v>
+      </c>
+      <c r="F3" s="18">
+        <f t="array" ref="F3">+INDEX($A$2:$A$25,MATCH(ROW(A2),$E$2:$E$25,0))</f>
+        <v>2.0036913577693216E-2</v>
+      </c>
+      <c r="I3" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="D1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J3" s="18">
+        <f t="shared" ref="J3:J6" si="1">+COUNTIF($I$2:$I$6,"&lt;="&amp;I3)</f>
+        <v>1</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="str">
+        <f t="shared" ref="L3:L6" si="2">+INDEX($I$2:$I$6,MATCH(ROW(A2),$J$2:$J$6,0))</f>
+        <v>Miguel</v>
+      </c>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="P3" s="18">
+        <f>+COUNTIF($O$2:$O$6,"&lt;="&amp;O3)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18" t="str">
+        <f t="shared" ref="R3:R6" si="3">+INDEX($O$2:$O$6,MATCH(ROW(G2),$P$2:$P$6,0))</f>
+        <v>AAA - 105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>0.85013948115623739</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18">
+        <v>0.87927547928192984</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F4" s="18">
+        <f t="array" ref="F4">+INDEX($A$2:$A$25,MATCH(ROW(A3),$E$2:$E$25,0))</f>
+        <v>2.2814192295919189E-2</v>
+      </c>
+      <c r="I4" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="H1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I1" t="s">
-        <v>203</v>
-      </c>
-      <c r="K1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0.30525049999999998</v>
-      </c>
-      <c r="B2">
-        <v>0.70037879999999997</v>
-      </c>
-      <c r="D2">
-        <f>+_xlfn.RANK.EQ(A2,$A$2:$A$25,0)</f>
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <f>+_xlfn.RANK.EQ(B2,$B$2:$B$25,0)</f>
+      <c r="J4" s="18">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Pepe</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="P4" s="18">
+        <f>+COUNTIF($O$2:$O$6,"&lt;="&amp;O4)</f>
+        <v>4</v>
+      </c>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>AAA - 106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>0.82865272115127298</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18">
+        <v>0.85013948115623739</v>
+      </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="array" ref="F5">+INDEX($A$2:$A$25,MATCH(ROW(A4),$E$2:$E$25,0))</f>
+        <v>7.8581998156752375E-2</v>
+      </c>
+      <c r="I5" s="18" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="18">
-        <f>+COUNTIF($H$2:$H$6,"&lt;="&amp;H2)</f>
-        <v>3</v>
-      </c>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18" t="str">
-        <f>+INDEX($H$2:$H$6,MATCH(ROW(A1),$I$2:$I$6,0))</f>
-        <v>AAA</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>-0.79720809999999998</v>
-      </c>
-      <c r="B3">
-        <v>-0.73450930000000003</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:D25" si="0">+_xlfn.RANK.EQ(A3,$A$2:$A$25,0)</f>
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E25" si="1">+_xlfn.RANK.EQ(B3,$B$2:$B$25,0)</f>
-        <v>19</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="18">
-        <f t="shared" ref="I3:I6" si="2">+COUNTIF($H$2:$H$6,"&lt;="&amp;H3)</f>
-        <v>1</v>
-      </c>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18" t="str">
-        <f t="shared" ref="K3:K6" si="3">+INDEX($H$2:$H$6,MATCH(ROW(A2),$I$2:$I$6,0))</f>
-        <v>Miguel</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>0.17331759999999999</v>
-      </c>
-      <c r="B4">
-        <v>0.32488299999999998</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="I4" s="18">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>Pepe</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>-2.22014E-2</v>
-      </c>
-      <c r="B5">
-        <v>0.42131550000000001</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="I5" s="18">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>Raul</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>-6.1704000000000004E-3</v>
-      </c>
-      <c r="B6">
-        <v>-4.65046E-2</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18" t="str">
-        <f t="shared" si="3"/>
-        <v>Saul</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8.73366E-2</v>
-      </c>
-      <c r="B7">
-        <v>-0.22489290000000001</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>-0.65594520000000001</v>
-      </c>
-      <c r="B8">
-        <v>-0.77118070000000005</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>-0.43621199999999999</v>
-      </c>
-      <c r="B9">
-        <v>-0.52469849999999996</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>0.81846649999999999</v>
-      </c>
-      <c r="B10">
-        <v>0.30146319999999999</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>-0.54503990000000002</v>
-      </c>
-      <c r="B11">
-        <v>-0.8480337</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>0.25951659999999999</v>
-      </c>
-      <c r="B12">
-        <v>0.473217</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="E12">
+      <c r="J5" s="18">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>0.20962910000000001</v>
-      </c>
-      <c r="B13">
-        <v>8.3707799999999999E-2</v>
-      </c>
-      <c r="D13">
+      <c r="K5" s="18"/>
+      <c r="L5" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Raul</v>
+      </c>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="18">
+        <f>+COUNTIF($O$2:$O$6,"&lt;="&amp;O5)</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>BBB - 100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
+        <v>9.0252766066301948E-2</v>
+      </c>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18">
+        <v>0.8466154375586129</v>
+      </c>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="array" ref="F6">+INDEX($A$2:$A$25,MATCH(ROW(A5),$E$2:$E$25,0))</f>
+        <v>8.0213575810135662E-2</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>Saul</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="P6" s="18">
+        <f>+COUNTIF($O$2:$O$6,"&lt;="&amp;O6)</f>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18" t="str">
+        <f t="shared" si="3"/>
+        <v>CCC - 105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>0.79927827207793967</v>
+      </c>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18">
+        <v>0.82865272115127298</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F7" s="18">
+        <f t="array" ref="F7">+INDEX($A$2:$A$25,MATCH(ROW(A6),$E$2:$E$25,0))</f>
+        <v>9.0252766066301948E-2</v>
+      </c>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>8.0213575810135662E-2</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18">
+        <v>0.80966991871382543</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F8" s="18">
+        <f t="array" ref="F8">+INDEX($A$2:$A$25,MATCH(ROW(A7),$E$2:$E$25,0))</f>
+        <v>0.17751825401805099</v>
+      </c>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>0.19594781417044171</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18">
+        <v>0.79927827207793967</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
+      <c r="F9" s="18">
+        <f t="array" ref="F9">+INDEX($A$2:$A$25,MATCH(ROW(A8),$E$2:$E$25,0))</f>
+        <v>0.19594781417044171</v>
+      </c>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="18">
+        <v>0.21033834346737512</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18">
+        <v>0.72808295175476434</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="18">
+        <f t="array" ref="F10">+INDEX($A$2:$A$25,MATCH(ROW(A9),$E$2:$E$25,0))</f>
+        <v>0.21033834346737512</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>0.34657119207142673</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18">
+        <v>0.72295087894834142</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="H13" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>-0.63167479999999998</v>
-      </c>
-      <c r="B14">
-        <v>-0.50929400000000002</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-      <c r="H14" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>0.4729044</v>
-      </c>
-      <c r="B15">
-        <v>0.3619328</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>-0.81224759999999996</v>
-      </c>
-      <c r="B16">
-        <v>-0.38570929999999998</v>
-      </c>
-      <c r="D16">
+      <c r="F11" s="18">
+        <f t="array" ref="F11">+INDEX($A$2:$A$25,MATCH(ROW(A10),$E$2:$E$25,0))</f>
+        <v>0.34657119207142673</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="18">
+        <v>0.64206940120584033</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18">
+        <v>0.66153006182985186</v>
+      </c>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="F12" s="18">
+        <f t="array" ref="F12">+INDEX($A$2:$A$25,MATCH(ROW(A11),$E$2:$E$25,0))</f>
+        <v>0.41014263920814564</v>
+      </c>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="18">
+        <v>0.41642738009021041</v>
+      </c>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18">
+        <v>0.64206940120584033</v>
+      </c>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F13" s="18">
+        <f t="array" ref="F13">+INDEX($A$2:$A$25,MATCH(ROW(A12),$E$2:$E$25,0))</f>
+        <v>0.41642738009021041</v>
+      </c>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="18">
+        <v>0.72295087894834142</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18">
+        <v>0.41642738009021041</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F14" s="18">
+        <f t="array" ref="F14">+INDEX($A$2:$A$25,MATCH(ROW(A13),$E$2:$E$25,0))</f>
+        <v>0.64206940120584033</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="18">
+        <v>0.96843510844638403</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18">
+        <v>0.41014263920814564</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="F15" s="18">
+        <f t="array" ref="F15">+INDEX($A$2:$A$25,MATCH(ROW(A14),$E$2:$E$25,0))</f>
+        <v>0.66153006182985186</v>
+      </c>
+      <c r="I15" t="s">
+        <v>201</v>
+      </c>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>0.87927547928192984</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18">
+        <v>0.34657119207142673</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>-0.52956250000000005</v>
-      </c>
-      <c r="B17">
-        <v>-0.73839549999999998</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="H17" s="19"/>
+      <c r="F16" s="18">
+        <f t="array" ref="F16">+INDEX($A$2:$A$25,MATCH(ROW(A15),$E$2:$E$25,0))</f>
+        <v>0.72295087894834142</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="18">
+        <v>0.72808295175476434</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18">
+        <v>0.21033834346737512</v>
+      </c>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F17" s="18">
+        <f t="array" ref="F17">+INDEX($A$2:$A$25,MATCH(ROW(A16),$E$2:$E$25,0))</f>
+        <v>0.72808295175476434</v>
+      </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19"/>
       <c r="N17" s="19"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>-0.30001480000000003</v>
-      </c>
-      <c r="B18">
-        <v>-0.41981469999999999</v>
-      </c>
-      <c r="D18">
+      <c r="O17" s="19"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>2.0036913577693216E-2</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18">
+        <v>0.19594781417044171</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F18" s="18">
+        <f t="array" ref="F18">+INDEX($A$2:$A$25,MATCH(ROW(A17),$E$2:$E$25,0))</f>
+        <v>0.79927827207793967</v>
+      </c>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="18">
+        <v>0.8466154375586129</v>
+      </c>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18">
+        <v>0.17751825401805099</v>
+      </c>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="array" ref="F19">+INDEX($A$2:$A$25,MATCH(ROW(A18),$E$2:$E$25,0))</f>
+        <v>0.80966991871382543</v>
+      </c>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="18">
+        <v>3.2281011924176761E-3</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18">
+        <v>9.0252766066301948E-2</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <f t="array" ref="F20">+INDEX($A$2:$A$25,MATCH(ROW(A19),$E$2:$E$25,0))</f>
+        <v>0.82865272115127298</v>
+      </c>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="18">
+        <v>0.66153006182985186</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18">
+        <v>8.0213575810135662E-2</v>
+      </c>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1.42222</v>
-      </c>
-      <c r="B19">
-        <v>1.381964</v>
-      </c>
-      <c r="D19">
+      <c r="F21" s="18">
+        <f t="array" ref="F21">+INDEX($A$2:$A$25,MATCH(ROW(A20),$E$2:$E$25,0))</f>
+        <v>0.8466154375586129</v>
+      </c>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="18">
+        <v>2.2814192295919189E-2</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18">
+        <v>7.8581998156752375E-2</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2.0318309999999999</v>
-      </c>
-      <c r="B20">
-        <v>2.2796609999999999</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>-1.457654</v>
-      </c>
-      <c r="B21">
-        <v>-1.3612759999999999</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>-0.36374689999999998</v>
-      </c>
-      <c r="B22">
-        <v>-0.1033176</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>1.8666609999999999</v>
-      </c>
-      <c r="B23">
-        <v>1.661149</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>-0.1648375</v>
-      </c>
-      <c r="B24">
-        <v>-0.35153869999999998</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>-0.92461780000000005</v>
-      </c>
-      <c r="B25">
-        <v>-0.97050610000000004</v>
-      </c>
-      <c r="D25">
+      <c r="F22" s="18">
+        <f t="array" ref="F22">+INDEX($A$2:$A$25,MATCH(ROW(A21),$E$2:$E$25,0))</f>
+        <v>0.85013948115623739</v>
+      </c>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="18">
+        <v>7.8581998156752375E-2</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18">
+        <v>2.2814192295919189E-2</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F23" s="18">
+        <f t="array" ref="F23">+INDEX($A$2:$A$25,MATCH(ROW(A22),$E$2:$E$25,0))</f>
+        <v>0.87927547928192984</v>
+      </c>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="18">
+        <v>0.928143484442428</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18">
+        <v>2.0036913577693216E-2</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
+      <c r="F24" s="18">
+        <f t="array" ref="F24">+INDEX($A$2:$A$25,MATCH(ROW(A23),$E$2:$E$25,0))</f>
+        <v>0.928143484442428</v>
+      </c>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="18">
+        <v>0.80966991871382543</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18">
+        <v>3.2281011924176761E-3</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F25" s="18">
+        <f t="array" ref="F25">+INDEX($A$2:$A$25,MATCH(ROW(A24),$E$2:$E$25,0))</f>
+        <v>0.96843510844638403</v>
+      </c>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="H14:N16"/>
+    <mergeCell ref="I16:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -8705,7 +8995,7 @@
       </c>
       <c r="L2" t="str">
         <f ca="1">+IF(K2&gt;TODAY(),"todavía no se jugó", IF(VALUE(MID(D2,2,2))&gt;HOUR(NOW()),"se va a jugar hoy",IF(VALUE(MID(D2,2,2))+2&gt;HOUR(NOW()),"se esta jugando","ya se jugó")))</f>
-        <v>se va a jugar hoy</v>
+        <v>ya se jugó</v>
       </c>
       <c r="N2" s="17"/>
     </row>
@@ -9235,7 +9525,7 @@
       </c>
       <c r="L18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>se va a jugar hoy</v>
+        <v>ya se jugó</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -9391,7 +9681,7 @@
       </c>
       <c r="L23" t="str">
         <f t="shared" ref="L23:L28" ca="1" si="6">+IF(K23&gt;TODAY(),"todavía no se jugó", IF(VALUE(MID(D23,2,2))&gt;HOUR(NOW()),"se va a jugar hoy",IF(VALUE(MID(D23,2,2))+2&gt;HOUR(NOW()),"se esta jugando","ya se jugó")))</f>
-        <v>se va a jugar hoy</v>
+        <v>se esta jugando</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
@@ -9463,7 +9753,7 @@
       </c>
       <c r="L25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>se va a jugar hoy</v>
+        <v>se esta jugando</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
@@ -9535,7 +9825,7 @@
       </c>
       <c r="L27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>se va a jugar hoy</v>
+        <v>ya se jugó</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -9571,7 +9861,7 @@
       </c>
       <c r="L28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>se va a jugar hoy</v>
+        <v>ya se jugó</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -9619,7 +9909,7 @@
       </c>
       <c r="L30" t="str">
         <f t="shared" ref="L30:L33" ca="1" si="7">+IF(K30&gt;TODAY(),"todavía no se jugó", IF(VALUE(MID(D30,2,2))&gt;HOUR(NOW()),"se va a jugar hoy",IF(VALUE(MID(D30,2,2))+2&gt;HOUR(NOW()),"se esta jugando","ya se jugó")))</f>
-        <v>todavía no se jugó</v>
+        <v>ya se jugó</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -9655,7 +9945,7 @@
       </c>
       <c r="L31" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>todavía no se jugó</v>
+        <v>se va a jugar hoy</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -9691,7 +9981,7 @@
       </c>
       <c r="L32" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>todavía no se jugó</v>
+        <v>se va a jugar hoy</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -9727,7 +10017,7 @@
       </c>
       <c r="L33" t="str">
         <f t="shared" ca="1" si="7"/>
-        <v>todavía no se jugó</v>
+        <v>se va a jugar hoy</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -9775,7 +10065,7 @@
       </c>
       <c r="L35" t="str">
         <f t="shared" ref="L35:L36" ca="1" si="8">+IF(K35&gt;TODAY(),"todavía no se jugó", IF(VALUE(MID(D35,2,2))&gt;HOUR(NOW()),"se va a jugar hoy",IF(VALUE(MID(D35,2,2))+2&gt;HOUR(NOW()),"se esta jugando","ya se jugó")))</f>
-        <v>todavía no se jugó</v>
+        <v>ya se jugó</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -9811,7 +10101,7 @@
       </c>
       <c r="L36" t="str">
         <f t="shared" ca="1" si="8"/>
-        <v>todavía no se jugó</v>
+        <v>se va a jugar hoy</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -9859,7 +10149,7 @@
       </c>
       <c r="L38" t="str">
         <f ca="1">+IF(K38&gt;TODAY(),"todavía no se jugó", IF(VALUE(MID(D38,2,2))&gt;HOUR(NOW()),"se va a jugar hoy",IF(VALUE(MID(D38,2,2))+2&gt;HOUR(NOW()),"se esta jugando","ya se jugó")))</f>
-        <v>todavía no se jugó</v>
+        <v>ya se jugó</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -9907,7 +10197,7 @@
       </c>
       <c r="L40" t="str">
         <f ca="1">+IF(K40&gt;TODAY(),"todavía no se jugó", IF(VALUE(MID(D40,2,2))&gt;HOUR(NOW()),"se va a jugar hoy",IF(VALUE(MID(D40,2,2))+2&gt;HOUR(NOW()),"se esta jugando","ya se jugó")))</f>
-        <v>todavía no se jugó</v>
+        <v>se va a jugar hoy</v>
       </c>
     </row>
   </sheetData>
